--- a/excel/collective/zestawy_dla_uczniow/zestaw_018.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
   <si>
     <t>ZESTAW ZADAŃ NR 18 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Szymon Krawczyk</t>
-  </si>
-  <si>
-    <t>Aleksander Kowalski</t>
-  </si>
-  <si>
-    <t>Maja Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Antoni Mazur</t>
-  </si>
-  <si>
-    <t>Mikołaj Lewandowski</t>
+    <t>Mikołaj Wójcik</t>
+  </si>
+  <si>
+    <t>Lena Urbaniak</t>
+  </si>
+  <si>
+    <t>Kacper Woźniak</t>
+  </si>
+  <si>
+    <t>Adam Kowalski</t>
+  </si>
+  <si>
+    <t>Mikołaj Woźniak</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>3,20</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,00</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>8,10</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>3,40</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>19,20</t>
+  </si>
+  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,50</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,00</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>4,60</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>2,60</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,50</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>18,40</t>
+    <t>3,80</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>8,22</t>
+    <t>13,11</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>15,68</t>
+    <t>22,96</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>26,16</t>
+    <t>6,38</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>11,02</t>
+    <t>29,10</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>24,28</t>
+    <t>17,36</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>9,72</t>
-  </si>
-  <si>
-    <t>11,23</t>
-  </si>
-  <si>
-    <t>4,28</t>
-  </si>
-  <si>
-    <t>24,18</t>
-  </si>
-  <si>
-    <t>10,42</t>
+    <t>17,24</t>
+  </si>
+  <si>
+    <t>15,58</t>
+  </si>
+  <si>
+    <t>30,64</t>
+  </si>
+  <si>
+    <t>25,13</t>
+  </si>
+  <si>
+    <t>13,87</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,16 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>3,94</t>
-  </si>
-  <si>
-    <t>1,49</t>
-  </si>
-  <si>
-    <t>16,22</t>
-  </si>
-  <si>
-    <t>4,10</t>
-  </si>
-  <si>
-    <t>9,30</t>
+    <t>17,09</t>
+  </si>
+  <si>
+    <t>8,77</t>
+  </si>
+  <si>
+    <t>11,21</t>
+  </si>
+  <si>
+    <t>23,53</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,48 +337,33 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Krawczyk</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Szymański</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Lis</t>
   </si>
   <si>
     <t>Wiśniewski</t>
   </si>
   <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
-  </si>
-  <si>
     <t>Średnia przedmiotu:</t>
   </si>
   <si>
@@ -415,148 +397,136 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Antoni Nowak</t>
-  </si>
-  <si>
-    <t>05.01.1988</t>
-  </si>
-  <si>
-    <t>10 402,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Kubiak</t>
-  </si>
-  <si>
-    <t>20.04.2004</t>
-  </si>
-  <si>
-    <t>3 510,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Król</t>
-  </si>
-  <si>
-    <t>18.03.1983</t>
-  </si>
-  <si>
-    <t>9 927,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Rogalska</t>
-  </si>
-  <si>
-    <t>17.02.1980</t>
-  </si>
-  <si>
-    <t>11 226,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Czarnecka</t>
-  </si>
-  <si>
-    <t>26.12.1996</t>
-  </si>
-  <si>
-    <t>3 649,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Jankowski</t>
-  </si>
-  <si>
-    <t>05.05.2004</t>
-  </si>
-  <si>
-    <t>13 384,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kozłowski</t>
-  </si>
-  <si>
-    <t>06.10.1984</t>
-  </si>
-  <si>
-    <t>9 276,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Rogalska</t>
-  </si>
-  <si>
-    <t>24.06.1979</t>
-  </si>
-  <si>
-    <t>7 912,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Zawadzka</t>
-  </si>
-  <si>
-    <t>12.04.1998</t>
-  </si>
-  <si>
-    <t>2 874,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Wójcik</t>
-  </si>
-  <si>
-    <t>23.05.1982</t>
-  </si>
-  <si>
-    <t>11 653,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Maciejewska</t>
-  </si>
-  <si>
-    <t>10.08.1994</t>
-  </si>
-  <si>
-    <t>5 958,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Jaworska</t>
-  </si>
-  <si>
-    <t>22.04.1986</t>
-  </si>
-  <si>
-    <t>12 055,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Grabowski</t>
-  </si>
-  <si>
-    <t>13.08.1994</t>
-  </si>
-  <si>
-    <t>5 298,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Olszewska</t>
-  </si>
-  <si>
-    <t>14.01.2000</t>
-  </si>
-  <si>
-    <t>3 079,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Górska</t>
-  </si>
-  <si>
-    <t>09.11.1993</t>
-  </si>
-  <si>
-    <t>4 155,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Krawczyk</t>
-  </si>
-  <si>
-    <t>02.09.1992</t>
-  </si>
-  <si>
-    <t>14 089,00 zł</t>
+    <t>Filip Wójcik</t>
+  </si>
+  <si>
+    <t>09.02.1981</t>
+  </si>
+  <si>
+    <t>11 030,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Jankowski</t>
+  </si>
+  <si>
+    <t>09.11.1980</t>
+  </si>
+  <si>
+    <t>2 650,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Bednarska</t>
+  </si>
+  <si>
+    <t>23.04.1979</t>
+  </si>
+  <si>
+    <t>12 715,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Nowak</t>
+  </si>
+  <si>
+    <t>07.09.2001</t>
+  </si>
+  <si>
+    <t>10 173,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Kowalczyk</t>
+  </si>
+  <si>
+    <t>24.07.1998</t>
+  </si>
+  <si>
+    <t>10 015,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Rogalska</t>
+  </si>
+  <si>
+    <t>06.11.1998</t>
+  </si>
+  <si>
+    <t>11 140,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Kaczmarek</t>
+  </si>
+  <si>
+    <t>02.08.1982</t>
+  </si>
+  <si>
+    <t>10 723,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Borkowska</t>
+  </si>
+  <si>
+    <t>21.02.1992</t>
+  </si>
+  <si>
+    <t>3 711,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Górska</t>
+  </si>
+  <si>
+    <t>05.01.1999</t>
+  </si>
+  <si>
+    <t>7 192,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Maciejewska</t>
+  </si>
+  <si>
+    <t>21.11.1975</t>
+  </si>
+  <si>
+    <t>12 763,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Bednarska</t>
+  </si>
+  <si>
+    <t>19.10.1994</t>
+  </si>
+  <si>
+    <t>4 673,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Maciejewska</t>
+  </si>
+  <si>
+    <t>12.03.1997</t>
+  </si>
+  <si>
+    <t>5 068,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Nowak</t>
+  </si>
+  <si>
+    <t>10.08.2002</t>
+  </si>
+  <si>
+    <t>9 404,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Malinowska</t>
+  </si>
+  <si>
+    <t>01.04.1996</t>
+  </si>
+  <si>
+    <t>7 201,00 zł</t>
+  </si>
+  <si>
+    <t>26.10.1989</t>
+  </si>
+  <si>
+    <t>13 571,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -628,304 +598,286 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 192,00 zł</t>
+  </si>
+  <si>
+    <t>1 609,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>669,00 zł</t>
+  </si>
+  <si>
+    <t>749,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 492,00 zł</t>
+  </si>
+  <si>
+    <t>1 746,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>580,00 zł</t>
+  </si>
+  <si>
+    <t>731,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>739,00 zł</t>
+  </si>
+  <si>
+    <t>850,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 036,00 zł</t>
+  </si>
+  <si>
+    <t>1 274,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 083,00 zł</t>
+  </si>
+  <si>
+    <t>1 440,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>1 398,00 zł</t>
+  </si>
+  <si>
+    <t>1 817,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 414,00 zł</t>
+  </si>
+  <si>
+    <t>1 570,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>1 228,00 zł</t>
+  </si>
+  <si>
+    <t>1 498,00 zł</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 166,00 zł</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 106,00 zł</t>
+  </si>
+  <si>
+    <t>1 261,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>1 468,00 zł</t>
+  </si>
+  <si>
+    <t>1 644,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>919,00 zł</t>
+  </si>
+  <si>
+    <t>1 213,00 zł</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>929,00 zł</t>
+    <t>1 080,00 zł</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
   </si>
   <si>
     <t>1 189,00 zł</t>
   </si>
   <si>
+    <t>1 605,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 082,00 zł</t>
+  </si>
+  <si>
+    <t>1 450,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>1 501,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>815,00 zł</t>
+  </si>
+  <si>
+    <t>1 019,00 zł</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 241,00 zł</t>
+  </si>
+  <si>
+    <t>1 588,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>1 307,00 zł</t>
+  </si>
+  <si>
+    <t>1 542,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>1 365,00 zł</t>
+  </si>
+  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 190,00 zł</t>
-  </si>
-  <si>
-    <t>1 452,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>804,00 zł</t>
-  </si>
-  <si>
-    <t>909,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 196,00 zł</t>
-  </si>
-  <si>
-    <t>1 579,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>616,00 zł</t>
-  </si>
-  <si>
-    <t>690,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 267,00 zł</t>
-  </si>
-  <si>
-    <t>1 406,00 zł</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 047,00 zł</t>
-  </si>
-  <si>
-    <t>1 319,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 141,00 zł</t>
-  </si>
-  <si>
-    <t>1 289,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>537,00 zł</t>
-  </si>
-  <si>
-    <t>596,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 388,00 zł</t>
-  </si>
-  <si>
-    <t>1 527,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 359,00 zł</t>
-  </si>
-  <si>
-    <t>1 631,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 421,00 zł</t>
-  </si>
-  <si>
-    <t>1 776,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 264,00 zł</t>
-  </si>
-  <si>
-    <t>1 479,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>944,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 185,00 zł</t>
-  </si>
-  <si>
-    <t>1 635,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>1 261,00 zł</t>
-  </si>
-  <si>
-    <t>1 740,00 zł</t>
-  </si>
-  <si>
-    <t>649,00 zł</t>
-  </si>
-  <si>
-    <t>727,00 zł</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>889,00 zł</t>
-  </si>
-  <si>
-    <t>896,00 zł</t>
-  </si>
-  <si>
-    <t>1 075,00 zł</t>
-  </si>
-  <si>
-    <t>1 356,00 zł</t>
-  </si>
-  <si>
-    <t>1 695,00 zł</t>
-  </si>
-  <si>
-    <t>1 470,00 zł</t>
-  </si>
-  <si>
-    <t>1 646,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>1 149,00 zł</t>
-  </si>
-  <si>
-    <t>1 563,00 zł</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 255,00 zł</t>
-  </si>
-  <si>
-    <t>1 519,00 zł</t>
-  </si>
-  <si>
-    <t>1 355,00 zł</t>
-  </si>
-  <si>
-    <t>1 626,00 zł</t>
-  </si>
-  <si>
-    <t>1 001,00 zł</t>
-  </si>
-  <si>
-    <t>1 131,00 zł</t>
-  </si>
-  <si>
-    <t>1 329,00 zł</t>
-  </si>
-  <si>
-    <t>1 595,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 300,00 zł</t>
-  </si>
-  <si>
-    <t>1 599,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 344,00 zł</t>
-  </si>
-  <si>
-    <t>1 680,00 zł</t>
-  </si>
-  <si>
-    <t>1 436,00 zł</t>
-  </si>
-  <si>
-    <t>1 781,00 zł</t>
+    <t>1 024,00 zł</t>
+  </si>
+  <si>
+    <t>1 198,00 zł</t>
+  </si>
+  <si>
+    <t>1 340,00 zł</t>
+  </si>
+  <si>
+    <t>1 822,00 zł</t>
+  </si>
+  <si>
+    <t>1 350,00 zł</t>
+  </si>
+  <si>
+    <t>1 525,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1485,16 +1437,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1503,16 +1455,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
@@ -1524,16 +1476,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
         <v>2</v>
-      </c>
-      <c r="C19" s="3">
-        <v>5</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
@@ -1545,19 +1497,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1569,13 +1521,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3">
         <v>6</v>
@@ -1587,16 +1539,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -1608,19 +1560,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
+      <c r="F23" s="3">
         <v>6</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1629,19 +1581,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1650,7 +1602,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -1659,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3">
         <v>6</v>
@@ -1671,19 +1623,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3">
         <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1695,16 +1647,16 @@
         <v>3</v>
       </c>
       <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
         <v>6</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1713,19 +1665,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
         <v>6</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
         <v>4</v>
       </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5</v>
-      </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1847,7 +1799,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1862,7 +1814,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1877,7 +1829,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1892,7 +1844,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1907,7 +1859,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1922,7 +1874,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2039,7 +1991,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2051,7 +2003,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2063,7 +2015,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2075,7 +2027,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2087,7 +2039,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2135,7 +2087,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2147,7 +2099,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2159,7 +2111,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2171,7 +2123,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2183,7 +2135,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2231,7 +2183,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2243,7 +2195,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2255,7 +2207,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2267,7 +2219,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2276,22 +2228,22 @@
         <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2313,10 +2265,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A18" sqref="A18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2337,53 +2289,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2395,7 +2347,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2404,40 +2356,40 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>6</v>
       </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
         <v>3</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6</v>
       </c>
       <c r="J12" s="3">
         <v>4</v>
@@ -2448,31 +2400,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="I13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="J13" s="3">
         <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>4</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2480,31 +2432,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>6</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2512,31 +2464,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
         <v>6</v>
       </c>
       <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>2</v>
-      </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2544,136 +2496,72 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3">
         <v>5</v>
       </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2686,10 +2574,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2701,7 +2589,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2711,243 +2599,232 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2965,10 +2842,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2984,7 +2861,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2994,75 +2871,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3070,22 +2947,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3093,22 +2970,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3119,19 +2996,19 @@
         <v>202</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3139,22 +3016,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3162,22 +3039,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3185,19 +3062,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>212</v>
@@ -3208,22 +3085,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3231,22 +3108,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3254,22 +3131,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3277,22 +3154,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3300,22 +3177,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3323,22 +3200,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3346,22 +3223,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3369,22 +3246,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3392,22 +3269,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3415,22 +3292,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3438,22 +3315,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3461,22 +3338,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3484,22 +3361,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3507,22 +3384,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3530,22 +3407,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3553,22 +3430,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3576,22 +3453,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3599,22 +3476,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3622,159 +3499,67 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>288</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="B46" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
         <v>289</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>179</v>
+      <c r="B47" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>303</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>304</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>305</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>306</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_018.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>ZESTAW ZADAŃ NR 18 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 18 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Temperówka</t>
   </si>
   <si>
-    <t>3,20</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,00</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>8,10</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>3,40</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>19,20</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>3,80</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,72 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>13,11</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>22,96</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>6,38</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>29,10</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>17,36</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>17,24</t>
-  </si>
-  <si>
-    <t>15,58</t>
-  </si>
-  <si>
-    <t>30,64</t>
-  </si>
-  <si>
-    <t>25,13</t>
-  </si>
-  <si>
-    <t>13,87</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>17,09</t>
-  </si>
-  <si>
-    <t>8,77</t>
-  </si>
-  <si>
-    <t>11,21</t>
-  </si>
-  <si>
-    <t>23,53</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -304,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -403,132 +328,87 @@
     <t>09.02.1981</t>
   </si>
   <si>
-    <t>11 030,00 zł</t>
-  </si>
-  <si>
     <t>Jan Jankowski</t>
   </si>
   <si>
     <t>09.11.1980</t>
   </si>
   <si>
-    <t>2 650,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Bednarska</t>
   </si>
   <si>
     <t>23.04.1979</t>
   </si>
   <si>
-    <t>12 715,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Nowak</t>
   </si>
   <si>
     <t>07.09.2001</t>
   </si>
   <si>
-    <t>10 173,00 zł</t>
-  </si>
-  <si>
     <t>Filip Kowalczyk</t>
   </si>
   <si>
     <t>24.07.1998</t>
   </si>
   <si>
-    <t>10 015,00 zł</t>
-  </si>
-  <si>
     <t>Lena Rogalska</t>
   </si>
   <si>
     <t>06.11.1998</t>
   </si>
   <si>
-    <t>11 140,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Kaczmarek</t>
   </si>
   <si>
     <t>02.08.1982</t>
   </si>
   <si>
-    <t>10 723,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Borkowska</t>
   </si>
   <si>
     <t>21.02.1992</t>
   </si>
   <si>
-    <t>3 711,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Górska</t>
   </si>
   <si>
     <t>05.01.1999</t>
   </si>
   <si>
-    <t>7 192,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Maciejewska</t>
   </si>
   <si>
     <t>21.11.1975</t>
   </si>
   <si>
-    <t>12 763,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Bednarska</t>
   </si>
   <si>
     <t>19.10.1994</t>
   </si>
   <si>
-    <t>4 673,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Maciejewska</t>
   </si>
   <si>
     <t>12.03.1997</t>
   </si>
   <si>
-    <t>5 068,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Nowak</t>
   </si>
   <si>
     <t>10.08.2002</t>
   </si>
   <si>
-    <t>9 404,00 zł</t>
-  </si>
-  <si>
     <t>Maja Malinowska</t>
   </si>
   <si>
     <t>01.04.1996</t>
   </si>
   <si>
-    <t>7 201,00 zł</t>
-  </si>
-  <si>
     <t>26.10.1989</t>
   </si>
   <si>
-    <t>13 571,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -541,9 +421,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -604,12 +481,6 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 192,00 zł</t>
-  </si>
-  <si>
-    <t>1 609,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -619,12 +490,6 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>669,00 zł</t>
-  </si>
-  <si>
-    <t>749,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
@@ -634,12 +499,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 492,00 zł</t>
-  </si>
-  <si>
-    <t>1 746,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -649,12 +508,6 @@
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>580,00 zł</t>
-  </si>
-  <si>
-    <t>731,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -664,24 +517,12 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>739,00 zł</t>
-  </si>
-  <si>
-    <t>850,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 036,00 zł</t>
-  </si>
-  <si>
-    <t>1 274,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -691,24 +532,12 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 083,00 zł</t>
-  </si>
-  <si>
-    <t>1 440,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>1 398,00 zł</t>
-  </si>
-  <si>
-    <t>1 817,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -718,51 +547,24 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 414,00 zł</t>
-  </si>
-  <si>
-    <t>1 570,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
-    <t>1 228,00 zł</t>
-  </si>
-  <si>
-    <t>1 498,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 166,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 106,00 zł</t>
-  </si>
-  <si>
-    <t>1 261,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>1 468,00 zł</t>
-  </si>
-  <si>
-    <t>1 644,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -772,109 +574,46 @@
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>919,00 zł</t>
-  </si>
-  <si>
-    <t>1 213,00 zł</t>
-  </si>
-  <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 080,00 zł</t>
-  </si>
-  <si>
     <t>pomorskie</t>
   </si>
   <si>
     <t>styczeń</t>
   </si>
   <si>
-    <t>1 189,00 zł</t>
-  </si>
-  <si>
-    <t>1 605,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 082,00 zł</t>
-  </si>
-  <si>
-    <t>1 450,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>1 501,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>815,00 zł</t>
-  </si>
-  <si>
-    <t>1 019,00 zł</t>
-  </si>
-  <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 241,00 zł</t>
-  </si>
-  <si>
-    <t>1 588,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>1 307,00 zł</t>
-  </si>
-  <si>
-    <t>1 542,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
-    <t>1 365,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>1 024,00 zł</t>
-  </si>
-  <si>
-    <t>1 198,00 zł</t>
-  </si>
-  <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>1 822,00 zł</t>
-  </si>
-  <si>
-    <t>1 350,00 zł</t>
-  </si>
-  <si>
-    <t>1 525,00 zł</t>
   </si>
   <si>
     <t>Krzysztof Lewandowski</t>
@@ -899,7 +638,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -956,14 +697,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -974,8 +715,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1006,30 +747,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1332,7 +1074,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1407,25 +1149,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1448,7 +1190,7 @@
       <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1469,7 +1211,7 @@
       <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1490,7 +1232,7 @@
       <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1511,7 +1253,7 @@
       <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1532,7 +1274,7 @@
       <c r="F21" s="3">
         <v>6</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1553,7 +1295,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1574,7 +1316,7 @@
       <c r="F23" s="3">
         <v>6</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1595,7 +1337,7 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1616,7 +1358,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1637,7 +1379,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1658,7 +1400,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1679,27 +1421,17 @@
       <c r="F28" s="3">
         <v>6</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1733,7 +1465,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1753,7 +1485,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1763,29 +1495,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1793,99 +1525,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3.2</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8.1</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3.4</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>19.2</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3.8</v>
       </c>
       <c r="D18" s="3">
         <v>9</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1918,7 +1650,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1943,113 +1675,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>13.11</v>
       </c>
       <c r="C15" s="3">
         <v>38</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>22.96</v>
       </c>
       <c r="C16" s="3">
         <v>48</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>6.38</v>
       </c>
       <c r="C17" s="3">
         <v>24</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>29.1</v>
       </c>
       <c r="C18" s="3">
         <v>11</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>17.36</v>
       </c>
       <c r="C19" s="3">
         <v>32</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2058,94 +1790,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>17.24</v>
       </c>
       <c r="C24" s="3">
         <v>11</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>15.58</v>
       </c>
       <c r="C25" s="3">
         <v>13</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>30.64</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>25.13</v>
       </c>
       <c r="C27" s="3">
         <v>36</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>13.87</v>
       </c>
       <c r="C28" s="3">
         <v>29</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2154,98 +1886,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>17.09</v>
       </c>
       <c r="C33" s="3">
         <v>35</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>8.77</v>
       </c>
       <c r="C34" s="3">
         <v>33</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>11.21</v>
       </c>
       <c r="C35" s="3">
         <v>33</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>23.53</v>
       </c>
       <c r="C36" s="3">
         <v>40</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>30.64</v>
       </c>
       <c r="C37" s="3">
         <v>15</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2268,7 +2000,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2288,90 +2020,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>90</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>104</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2394,16 +2126,16 @@
       <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2426,16 +2158,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
@@ -2458,16 +2190,16 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2490,16 +2222,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2522,40 +2254,40 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2588,203 +2320,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>116</v>
+      <c r="A1" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>124</v>
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>127</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="7">
+        <v>11030</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2650</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
+      </c>
+      <c r="C13" s="7">
+        <v>12715</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10173</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>139</v>
+        <v>109</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10015</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>142</v>
+        <v>111</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11140</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>145</v>
+        <v>113</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10723</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>148</v>
+        <v>115</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3711</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7192</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
+      </c>
+      <c r="C20" s="7">
+        <v>12763</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>157</v>
+        <v>121</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4673</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>160</v>
+        <v>123</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5068</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9404</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>166</v>
+        <v>127</v>
+      </c>
+      <c r="C24" s="7">
+        <v>7201</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2792,40 +2524,34 @@
         <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>168</v>
+        <v>128</v>
+      </c>
+      <c r="C25" s="7">
+        <v>13571</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>169</v>
+      <c r="A28" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2860,86 +2586,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>174</v>
+      <c r="A1" s="15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>191</v>
+      <c r="A15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2947,22 +2673,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1192</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1609</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2970,22 +2696,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>200</v>
+        <v>155</v>
+      </c>
+      <c r="D17" s="7">
+        <v>669</v>
+      </c>
+      <c r="E17" s="7">
+        <v>749</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2993,22 +2719,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>205</v>
+        <v>158</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1492</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1746</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3016,22 +2742,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>210</v>
+        <v>161</v>
+      </c>
+      <c r="D19" s="7">
+        <v>580</v>
+      </c>
+      <c r="E19" s="7">
+        <v>731</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3039,22 +2765,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>215</v>
+        <v>164</v>
+      </c>
+      <c r="D20" s="7">
+        <v>739</v>
+      </c>
+      <c r="E20" s="7">
+        <v>850</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3062,22 +2788,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>219</v>
+        <v>166</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1036</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1274</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3085,22 +2811,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>169</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1083</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1440</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3108,22 +2834,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>228</v>
+        <v>169</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1398</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1817</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3131,22 +2857,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>233</v>
+        <v>174</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1414</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1570</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3154,22 +2880,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>236</v>
+        <v>158</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1228</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1498</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3177,22 +2903,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>204</v>
+        <v>176</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1166</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1492</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3200,22 +2926,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>242</v>
+        <v>178</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1106</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1261</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3223,22 +2949,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>246</v>
+        <v>174</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1468</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1644</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3246,22 +2972,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>251</v>
+        <v>183</v>
+      </c>
+      <c r="D29" s="7">
+        <v>919</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1213</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3269,22 +2995,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>219</v>
+        <v>184</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1080</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1274</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3292,22 +3018,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>257</v>
+        <v>183</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1189</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1605</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3315,22 +3041,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>261</v>
+        <v>188</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1082</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1450</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3338,22 +3064,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>264</v>
+        <v>161</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1261</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1501</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3361,22 +3087,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>268</v>
+        <v>192</v>
+      </c>
+      <c r="D34" s="7">
+        <v>815</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1019</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3384,22 +3110,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>271</v>
+        <v>193</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1241</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1588</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3407,22 +3133,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>274</v>
+        <v>193</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1307</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1542</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>275</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3430,22 +3156,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>276</v>
+        <v>169</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1241</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1365</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3453,22 +3179,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>280</v>
+        <v>166</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1024</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1198</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3476,22 +3202,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>282</v>
+        <v>166</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1340</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1822</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3499,68 +3225,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1350</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1525</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="G40" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>169</v>
+      <c r="A43" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>286</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>287</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>288</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>289</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>290</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_018.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_018.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>ZESTAW ZADAŃ NR 18 - CZĘŚĆ 1</t>
   </si>
@@ -61,367 +62,394 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Mikołaj Wójcik</t>
+    <t>Emilia Wilk</t>
+  </si>
+  <si>
+    <t>Filip Nowak</t>
+  </si>
+  <si>
+    <t>Kacper Krawczyk</t>
+  </si>
+  <si>
+    <t>Jan Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Aleksander Woźniak</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 18 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 18 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Urbaniak</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Bednarska</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Emilia Sikorska</t>
+  </si>
+  <si>
+    <t>Natalia Kubiak</t>
+  </si>
+  <si>
+    <t>Kacper Szymański</t>
+  </si>
+  <si>
+    <t>Wojciech Jankowski</t>
+  </si>
+  <si>
+    <t>Jakub Krawczyk</t>
+  </si>
+  <si>
+    <t>Oliwia Borkowska</t>
+  </si>
+  <si>
+    <t>Antoni Mazur</t>
+  </si>
+  <si>
+    <t>Jan Nowak</t>
+  </si>
+  <si>
+    <t>Szymon Kozłowski</t>
+  </si>
+  <si>
+    <t>Filip Kowalczyk</t>
+  </si>
+  <si>
+    <t>Natalia Bednarska</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Oliwia Urbaniak</t>
+  </si>
+  <si>
+    <t>Antoni Piotrowski</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Kacper Mazur</t>
+  </si>
+  <si>
+    <t>Mikołaj Wiśniewski</t>
+  </si>
+  <si>
+    <t>Natalia Piekarska</t>
   </si>
   <si>
     <t>Lena Urbaniak</t>
   </si>
   <si>
-    <t>Kacper Woźniak</t>
-  </si>
-  <si>
-    <t>Adam Kowalski</t>
-  </si>
-  <si>
-    <t>Mikołaj Woźniak</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 18 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 18 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Szymański</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Filip Wójcik</t>
-  </si>
-  <si>
-    <t>09.02.1981</t>
-  </si>
-  <si>
-    <t>Jan Jankowski</t>
-  </si>
-  <si>
-    <t>09.11.1980</t>
-  </si>
-  <si>
-    <t>Zuzanna Bednarska</t>
-  </si>
-  <si>
-    <t>23.04.1979</t>
-  </si>
-  <si>
-    <t>Jakub Nowak</t>
-  </si>
-  <si>
-    <t>07.09.2001</t>
-  </si>
-  <si>
-    <t>Filip Kowalczyk</t>
-  </si>
-  <si>
-    <t>24.07.1998</t>
+    <t>Oliwia Rogalska</t>
+  </si>
+  <si>
+    <t>Jakub Szymański</t>
+  </si>
+  <si>
+    <t>Maja Górska</t>
+  </si>
+  <si>
+    <t>Anna Olszewska</t>
+  </si>
+  <si>
+    <t>Lena Wilk</t>
   </si>
   <si>
     <t>Lena Rogalska</t>
   </si>
   <si>
-    <t>06.11.1998</t>
-  </si>
-  <si>
-    <t>Antoni Kaczmarek</t>
-  </si>
-  <si>
-    <t>02.08.1982</t>
-  </si>
-  <si>
-    <t>Hanna Borkowska</t>
-  </si>
-  <si>
-    <t>21.02.1992</t>
-  </si>
-  <si>
-    <t>Zuzanna Górska</t>
-  </si>
-  <si>
-    <t>05.01.1999</t>
-  </si>
-  <si>
-    <t>Amelia Maciejewska</t>
-  </si>
-  <si>
-    <t>21.11.1975</t>
-  </si>
-  <si>
-    <t>Emilia Bednarska</t>
-  </si>
-  <si>
-    <t>19.10.1994</t>
-  </si>
-  <si>
-    <t>Zuzanna Maciejewska</t>
-  </si>
-  <si>
-    <t>12.03.1997</t>
-  </si>
-  <si>
-    <t>Wojciech Nowak</t>
-  </si>
-  <si>
-    <t>10.08.2002</t>
-  </si>
-  <si>
-    <t>Maja Malinowska</t>
-  </si>
-  <si>
-    <t>01.04.1996</t>
-  </si>
-  <si>
-    <t>26.10.1989</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Szymon Wojciechowski</t>
+  </si>
+  <si>
+    <t>Anna Jaworska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -475,148 +503,151 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
     <t>maj</t>
   </si>
   <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
   </si>
   <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>Agnieszka Wojciechowska</t>
+    <t>Odtwarzacz DVD</t>
   </si>
   <si>
     <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -688,7 +719,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,12 +742,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -747,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -758,13 +783,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1071,7 +1095,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1176,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
         <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1197,19 +1221,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="3">
-        <v>5</v>
-      </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1218,16 +1242,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
         <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
@@ -1239,19 +1263,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>6</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1260,19 +1284,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
         <v>6</v>
       </c>
       <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3">
-        <v>6</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1281,19 +1305,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1302,16 +1326,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
         <v>6</v>
@@ -1323,19 +1347,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
         <v>6</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>4</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1344,13 +1368,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
         <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
       </c>
       <c r="E25" s="3">
         <v>5</v>
@@ -1371,13 +1395,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
         <v>6</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1386,19 +1410,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3">
         <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1410,16 +1434,16 @@
         <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1432,6 +1456,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1465,7 +1495,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1485,7 +1515,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1495,29 +1525,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1525,99 +1555,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3.2</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3.3</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8.1</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3.7</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3.4</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.4</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>19.2</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.9</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3.8</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4.8</v>
       </c>
       <c r="D18" s="3">
-        <v>9</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1634,10 +1664,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1650,7 +1680,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1675,27 +1705,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1703,85 +1733,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>13.11</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>10.2</v>
       </c>
       <c r="C15" s="3">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>22.96</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>19.15</v>
       </c>
       <c r="C16" s="3">
-        <v>48</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>6.38</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>9.15</v>
       </c>
       <c r="C17" s="3">
-        <v>24</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>29.1</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>12.050000000000001</v>
       </c>
       <c r="C18" s="3">
-        <v>11</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>17.36</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6.55</v>
       </c>
       <c r="C19" s="3">
         <v>32</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1790,8 +1820,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1799,85 +1829,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>17.24</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3.05</v>
       </c>
       <c r="C24" s="3">
-        <v>11</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>15.58</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>16.9</v>
       </c>
       <c r="C25" s="3">
-        <v>13</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>30.64</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>24.8</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>25.13</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>6.16</v>
       </c>
       <c r="C27" s="3">
-        <v>36</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>13.87</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>15.34</v>
       </c>
       <c r="C28" s="3">
-        <v>29</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1886,8 +1916,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1895,89 +1925,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>17.09</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>19.42</v>
       </c>
       <c r="C33" s="3">
-        <v>35</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>8.77</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>21.32</v>
       </c>
       <c r="C34" s="3">
-        <v>33</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>11.21</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>3.84</v>
       </c>
       <c r="C35" s="3">
-        <v>33</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>23.53</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2.96</v>
       </c>
       <c r="C36" s="3">
-        <v>40</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>30.64</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>16.62</v>
       </c>
       <c r="C37" s="3">
-        <v>15</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1997,10 +2035,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L18"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2020,93 +2058,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
@@ -2115,16 +2153,16 @@
         <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2132,31 +2170,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
         <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2164,16 +2202,16 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
@@ -2182,13 +2220,13 @@
         <v>2</v>
       </c>
       <c r="H14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>6</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2196,31 +2234,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
-        <v>6</v>
-      </c>
       <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
-        <v>5</v>
-      </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2228,72 +2266,168 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
         <v>4</v>
       </c>
       <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
         <v>4</v>
       </c>
-      <c r="G16" s="3">
-        <v>6</v>
-      </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2306,10 +2440,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2320,238 +2454,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>91</v>
+      <c r="A1" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="7">
-        <v>11030</v>
+        <v>107</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C11" s="8">
+        <v>12318</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2650</v>
+        <v>108</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C12" s="8">
+        <v>12202</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="7">
-        <v>12715</v>
+        <v>109</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3528</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="7">
-        <v>10173</v>
+        <v>110</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4745</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="7">
-        <v>10015</v>
+        <v>111</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6797</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11140</v>
+        <v>112</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6680</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="7">
-        <v>10723</v>
+      <c r="B17" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C17" s="8">
+        <v>12213</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3711</v>
+      <c r="B18" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3186</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7192</v>
+        <v>115</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5396</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="7">
-        <v>12763</v>
+        <v>116</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5693</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4673</v>
+        <v>117</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C21" s="8">
+        <v>7824</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="7">
-        <v>5068</v>
+        <v>118</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C22" s="8">
+        <v>12921</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="7">
-        <v>9404</v>
+        <v>119</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C23" s="8">
+        <v>13819</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="7">
-        <v>7201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="7">
-        <v>13571</v>
+        <v>120</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C24" s="8">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="17" t="s">
-        <v>129</v>
-      </c>
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2568,10 +2691,185 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A44" sqref="A44:B48"/>
+      <selection activeCell="A10" sqref="A10:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="3">
+        <v>146</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="3">
+        <v>114</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="3">
+        <v>166</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="3">
+        <v>146</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="3">
+        <v>163</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3">
+        <v>113</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="3">
+        <v>133</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="3">
+        <v>108</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="3">
+        <v>112</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="3">
+        <v>158</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="3">
+        <v>152</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="3">
+        <v>181</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A48" sqref="A48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2586,86 +2884,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>133</v>
+      <c r="A1" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2673,22 +2971,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1192</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1609</v>
+        <v>161</v>
+      </c>
+      <c r="D16" s="8">
+        <v>855</v>
+      </c>
+      <c r="E16" s="8">
+        <v>975</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2696,22 +2994,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="7">
-        <v>669</v>
-      </c>
-      <c r="E17" s="7">
-        <v>749</v>
+        <v>164</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1122</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1380</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2719,22 +3017,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1492</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1746</v>
+        <v>167</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1198</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1545</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2742,22 +3040,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="7">
-        <v>580</v>
-      </c>
-      <c r="E19" s="7">
-        <v>731</v>
+        <v>171</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1497</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2051</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2765,22 +3063,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="7">
-        <v>739</v>
-      </c>
-      <c r="E20" s="7">
-        <v>850</v>
+        <v>175</v>
+      </c>
+      <c r="D20" s="8">
+        <v>692</v>
+      </c>
+      <c r="E20" s="8">
+        <v>920</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2788,22 +3086,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1036</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1274</v>
+        <v>177</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1448</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2027</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2811,22 +3109,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1083</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1440</v>
+        <v>167</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1393</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1672</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2834,19 +3132,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1398</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1817</v>
+        <v>171</v>
+      </c>
+      <c r="D23" s="8">
+        <v>508</v>
+      </c>
+      <c r="E23" s="8">
+        <v>589</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>163</v>
@@ -2857,22 +3155,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1414</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1570</v>
+        <v>183</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1183</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1301</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2880,22 +3178,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1228</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1498</v>
+        <v>171</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1461</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1709</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2903,22 +3201,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1166</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1492</v>
+        <v>186</v>
+      </c>
+      <c r="D26" s="8">
+        <v>931</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1210</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2926,22 +3224,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1106</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1261</v>
+        <v>189</v>
+      </c>
+      <c r="D27" s="8">
+        <v>821</v>
+      </c>
+      <c r="E27" s="8">
+        <v>977</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2949,22 +3247,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1468</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1644</v>
+        <v>186</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1481</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2014</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2972,22 +3270,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="7">
-        <v>919</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1213</v>
+        <v>191</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1221</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1551</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2998,19 +3296,19 @@
         <v>160</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1080</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1274</v>
+        <v>193</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1035</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1252</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3018,22 +3316,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1189</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1605</v>
+        <v>189</v>
+      </c>
+      <c r="D31" s="8">
+        <v>875</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1059</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3041,22 +3339,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1082</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1450</v>
+        <v>196</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1134</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1463</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3064,19 +3362,19 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1261</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1501</v>
+        <v>198</v>
+      </c>
+      <c r="D33" s="8">
+        <v>763</v>
+      </c>
+      <c r="E33" s="8">
+        <v>908</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>185</v>
@@ -3087,22 +3385,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="7">
-        <v>815</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1019</v>
+        <v>200</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1351</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1527</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3110,22 +3408,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1241</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1588</v>
+        <v>201</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1293</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1668</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3133,22 +3431,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1307</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1542</v>
+        <v>189</v>
+      </c>
+      <c r="D36" s="8">
+        <v>783</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1065</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3156,22 +3454,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1241</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1365</v>
+        <v>175</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1313</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1510</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3179,22 +3477,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1024</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1198</v>
+        <v>203</v>
+      </c>
+      <c r="D38" s="8">
+        <v>868</v>
+      </c>
+      <c r="E38" s="8">
+        <v>955</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3202,22 +3500,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1340</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1822</v>
+        <v>204</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1202</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1418</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3225,58 +3523,150 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1473</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1989</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1019</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1243</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1350</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1525</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>185</v>
+      <c r="C42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1198</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1474</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17" t="s">
-        <v>129</v>
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1265</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1695</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>199</v>
-      </c>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="6"/>
+      <c r="D44" s="8">
+        <v>1325</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1749</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="A47" s="16" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
